--- a/Assets/Code/Game/Editors/HeroEdit/Table/TableConfig.xlsx
+++ b/Assets/Code/Game/Editors/HeroEdit/Table/TableConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22331" windowHeight="9972"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78">
   <si>
     <t>id</t>
   </si>
@@ -39,6 +39,9 @@
     <t>控件定长</t>
   </si>
   <si>
+    <t>外键(对应其他表Id)</t>
+  </si>
+  <si>
     <t>Id</t>
   </si>
   <si>
@@ -60,6 +63,9 @@
     <t>UIWidth</t>
   </si>
   <si>
+    <t>ForeignKey</t>
+  </si>
+  <si>
     <t>Hero</t>
   </si>
   <si>
@@ -118,6 +124,9 @@
   </si>
   <si>
     <t>["EditorWindows_CreateHero","SwitchHandle"]</t>
+  </si>
+  <si>
+    <t>Skill.Id</t>
   </si>
   <si>
     <t>ResurcePath</t>
@@ -249,9 +258,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -269,6 +278,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,28 +306,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -335,6 +330,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -351,15 +360,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,15 +385,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,13 +419,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -420,13 +429,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,169 +603,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,15 +620,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -634,6 +634,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,6 +679,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -694,17 +714,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -719,10 +728,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -731,139 +740,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -940,7 +952,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1219,687 +1231,697 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A33" sqref="$A33:$XFD49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="22" style="1" customWidth="1"/>
     <col min="4" max="4" width="34.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="57.1296296296296" style="1" customWidth="1"/>
+    <col min="6" max="6" width="57.1333333333333" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" ht="14.25" spans="1:8">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" ht="15.6" spans="1:7">
-      <c r="A2" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="2" ht="14.25" spans="1:8">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" ht="15.6" spans="1:7">
-      <c r="A3" s="2">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:7">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="2"/>
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3"/>
       <c r="G3" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="15.6" spans="1:7">
-      <c r="A4" s="2">
+    <row r="4" ht="14.25" spans="1:7">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="3"/>
       <c r="G4" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="1:7">
-      <c r="A5" s="2">
+    <row r="5" ht="14.25" spans="1:7">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="2"/>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="3"/>
       <c r="G5" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="15.6" spans="1:7">
-      <c r="A6" s="2">
+    <row r="6" ht="14.25" spans="1:7">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="2"/>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="3"/>
       <c r="G6" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="15.6" spans="1:7">
-      <c r="A7" s="2">
+    <row r="7" ht="14.25" spans="1:7">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="2"/>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="3"/>
       <c r="G7" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="15.6" spans="1:7">
-      <c r="A8" s="2">
+    <row r="8" ht="14.25" spans="1:7">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>26</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="G8" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="9" ht="15.6" spans="1:7">
-      <c r="A9" s="2">
+    <row r="9" ht="14.25" spans="1:7">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" spans="1:8">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" spans="1:7">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="1:7">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" spans="1:7">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:7">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="1:7">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="1:7">
+      <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="B16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" spans="1:7">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="1:7">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" spans="1:7">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" spans="1:7">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" spans="1:7">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" spans="1:7">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" spans="1:7">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" spans="1:7">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" spans="1:7">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" spans="1:7">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" spans="1:7">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" spans="1:7">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25" spans="1:7">
+      <c r="A29" s="3">
         <v>27</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" ht="15.6" spans="1:7">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" ht="15.6" spans="1:7">
-      <c r="A11" s="2">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" ht="15.6" spans="1:7">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" ht="15.6" spans="1:7">
-      <c r="A13" s="2">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" ht="15.6" spans="1:7">
-      <c r="A14" s="2">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" ht="15.6" spans="1:7">
-      <c r="A15" s="2">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" ht="15.6" spans="1:7">
-      <c r="A16" s="2">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" ht="15.6" spans="1:7">
-      <c r="A17" s="2">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" ht="15.6" spans="1:7">
-      <c r="A18" s="2">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" ht="15.6" spans="1:7">
-      <c r="A19" s="2">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" ht="15.6" spans="1:7">
-      <c r="A20" s="2">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" ht="15.6" spans="1:7">
-      <c r="A21" s="2">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" ht="15.6" spans="1:7">
-      <c r="A22" s="2">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" ht="15.6" spans="1:7">
-      <c r="A23" s="2">
-        <v>21</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" ht="15.6" spans="1:7">
-      <c r="A24" s="2">
-        <v>22</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" ht="15.6" spans="1:7">
-      <c r="A25" s="2">
-        <v>23</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" ht="15.6" spans="1:7">
-      <c r="A26" s="2">
-        <v>24</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" ht="15.6" spans="1:7">
-      <c r="A27" s="2">
-        <v>25</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" ht="15.6" spans="1:7">
-      <c r="A28" s="2">
+      <c r="C29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" ht="15.6" spans="1:7">
-      <c r="A29" s="2">
-        <v>27</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G29" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="30" ht="15.6" spans="1:7">
-      <c r="A30" s="2">
+    <row r="30" ht="14.25" spans="1:7">
+      <c r="A30" s="3">
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G30" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="31" ht="15.6" spans="1:7">
-      <c r="A31" s="2">
+    <row r="31" ht="14.25" spans="1:7">
+      <c r="A31" s="3">
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G31" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="32" ht="15.6" spans="1:7">
-      <c r="A32" s="2">
+    <row r="32" ht="14.25" spans="1:7">
+      <c r="A32" s="3">
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G32" s="1">
         <v>0</v>
@@ -1921,7 +1943,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1938,7 +1960,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
